--- a/output/StructureDefinition-rtlsMessageBundle.xlsx
+++ b/output/StructureDefinition-rtlsMessageBundle.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T19:07:59-05:00</t>
+    <t>2025-06-24T13:00:09-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rtlsMessageBundle.xlsx
+++ b/output/StructureDefinition-rtlsMessageBundle.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:00:09-05:00</t>
+    <t>2025-06-24T13:13:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rtlsMessageBundle.xlsx
+++ b/output/StructureDefinition-rtlsMessageBundle.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:13:18-05:00</t>
+    <t>2025-06-24T13:15:27-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rtlsMessageBundle.xlsx
+++ b/output/StructureDefinition-rtlsMessageBundle.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:15:27-05:00</t>
+    <t>2025-06-24T13:30:24-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rtlsMessageBundle.xlsx
+++ b/output/StructureDefinition-rtlsMessageBundle.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:30:24-05:00</t>
+    <t>2025-06-24T13:47:41-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rtlsMessageBundle.xlsx
+++ b/output/StructureDefinition-rtlsMessageBundle.xlsx
@@ -63,13 +63,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:47:41-05:00</t>
+    <t>2025-06-25T12:47:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - Patient Administration Work Group</t>
+    <t>HL7 International / Patient Administration</t>
   </si>
   <si>
     <t>Contact</t>
@@ -401,7 +401,7 @@
     <t>Bundle.type</t>
   </si>
   <si>
-    <t>message | subscription-notification</t>
+    <t>message</t>
   </si>
   <si>
     <t>Indicates the purpose of this bundle - how it is intended to be used.</t>
@@ -569,7 +569,7 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>For bundles of type "message", the first entry resource must be MessageHeader. For bundles of type "subscription-notification", the first entry resource must be SubscriptionStatus).</t>
+    <t>For bundles of type "message", the first entry resource must be MessageHeader.</t>
   </si>
   <si>
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
